--- a/data/frailty/ontario/ontario-influenza-hosp-death.xlsx
+++ b/data/frailty/ontario/ontario-influenza-hosp-death.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24400" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="6360" yWindow="1920" windowWidth="38860" windowHeight="19360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw-data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="48">
   <si>
     <r>
       <t xml:space="preserve">Table 3. </t>
@@ -178,12 +178,31 @@
   <si>
     <t>type</t>
   </si>
+  <si>
+    <t>Ontario population</t>
+  </si>
+  <si>
+    <t>per 100,000</t>
+  </si>
+  <si>
+    <t>number hospitalization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,131 +567,186 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,152 +773,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
+    <cellStyle name="Comma" xfId="35" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1208,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA29"/>
+  <dimension ref="B2:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1258,145 +1281,145 @@
       <c r="O8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="U8" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="31" t="s">
+      <c r="W8" s="86"/>
+      <c r="X8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="32" t="s">
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:27">
-      <c r="U9" s="28"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="32"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="88"/>
     </row>
     <row r="10" spans="2:27">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="I10" s="78" t="s">
+      <c r="G10" s="32"/>
+      <c r="I10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="O10" s="51" t="s">
+      <c r="M10" s="67"/>
+      <c r="O10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="58" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="31" t="s">
+      <c r="S10" s="32"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="31" t="s">
+      <c r="W10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31" t="s">
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="31" t="s">
+      <c r="Z10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" s="32"/>
+      <c r="AA10" s="88"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="C11" s="52"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
     </row>
     <row r="12" spans="2:27" ht="15" customHeight="1">
-      <c r="C12" s="52"/>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="62" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="62" t="s">
+      <c r="O12" s="25"/>
+      <c r="P12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="64" t="s">
+      <c r="Q12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S12" s="41" t="s">
         <v>6</v>
       </c>
       <c r="U12" s="6" t="s">
@@ -1422,21 +1445,21 @@
       </c>
     </row>
     <row r="13" spans="2:27">
-      <c r="C13" s="53"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="69"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="69"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="69"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="42"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="11"/>
@@ -1446,49 +1469,49 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="2:27" ht="15" customHeight="1">
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="45">
         <v>157</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="47">
         <v>107.9</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="49">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="43">
         <v>0.7</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="45">
         <v>136</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="47">
         <v>95.8</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="49">
         <v>0</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="43">
         <v>0</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="45">
         <v>223</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="47">
         <v>157.19999999999999</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="49">
         <v>3</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="43">
         <v>2.1</v>
       </c>
       <c r="U14" s="22" t="s">
@@ -1514,21 +1537,21 @@
       </c>
     </row>
     <row r="15" spans="2:27">
-      <c r="C15" s="34"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="34"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="44"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="13"/>
@@ -1538,49 +1561,49 @@
       <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="2:27">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="45">
         <v>404</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="47">
         <v>70</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="49">
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="43">
         <v>0</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="45">
         <v>196</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="47">
         <v>34.200000000000003</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="49">
         <v>1</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="43">
         <v>0.2</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="45">
         <v>340</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="47">
         <v>59.2</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="49">
         <v>3</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="43">
         <v>0.5</v>
       </c>
       <c r="U16" s="21" t="s">
@@ -1606,21 +1629,21 @@
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="34"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="34"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="44"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="11"/>
@@ -1630,49 +1653,49 @@
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="3:27" ht="15" customHeight="1">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="45">
         <v>261</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="47">
         <v>17.600000000000001</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="49">
         <v>2</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="43">
         <v>0.1</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="45">
         <v>157</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="47">
         <v>10.6</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="49">
         <v>2</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="43">
         <v>0.1</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="45">
         <v>198</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="47">
         <v>13.4</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="49">
         <v>3</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="43">
         <v>0.2</v>
       </c>
       <c r="U18" s="4" t="s">
@@ -1698,21 +1721,21 @@
       </c>
     </row>
     <row r="19" spans="3:27">
-      <c r="C19" s="34"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="34"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="44"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="13"/>
@@ -1722,49 +1745,49 @@
       <c r="AA19" s="14"/>
     </row>
     <row r="20" spans="3:27" ht="15" customHeight="1">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="45">
         <v>58</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="47">
         <v>3.2</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="49">
         <v>6</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="43">
         <v>0.3</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="45">
         <v>53</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="47">
         <v>2.9</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="49">
         <v>1</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="43">
         <v>0.1</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="45">
         <v>80</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="47">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="49">
         <v>2</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="43">
         <v>0.1</v>
       </c>
       <c r="U20" s="6" t="s">
@@ -1790,21 +1813,21 @@
       </c>
     </row>
     <row r="21" spans="3:27">
-      <c r="C21" s="34"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="34"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="44"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="11"/>
@@ -1814,49 +1837,49 @@
       <c r="AA21" s="12"/>
     </row>
     <row r="22" spans="3:27" ht="15" customHeight="1">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="45">
         <v>244</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="47">
         <v>6.6</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="49">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="43">
         <v>0.1</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="45">
         <v>163</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="47">
         <v>4.5</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="49">
         <v>4</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="43">
         <v>0.1</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="45">
         <v>369</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="47">
         <v>10.199999999999999</v>
       </c>
-      <c r="R22" s="39">
+      <c r="R22" s="49">
         <v>16</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="43">
         <v>0.4</v>
       </c>
       <c r="U22" s="3" t="s">
@@ -1882,21 +1905,21 @@
       </c>
     </row>
     <row r="23" spans="3:27">
-      <c r="C23" s="34"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="34"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="44"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="15"/>
@@ -1906,49 +1929,49 @@
       <c r="AA23" s="16"/>
     </row>
     <row r="24" spans="3:27" ht="15" customHeight="1">
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="45">
         <v>596</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="47">
         <v>15.3</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="49">
         <v>34</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="43">
         <v>0.9</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="45">
         <v>479</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="47">
         <v>12.5</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="49">
         <v>18</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="43">
         <v>0.5</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="45">
         <v>908</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="47">
         <v>23.8</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="49">
         <v>67</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="43">
         <v>1.8</v>
       </c>
       <c r="U24" s="6" t="s">
@@ -1964,21 +1987,21 @@
       <c r="AA24" s="12"/>
     </row>
     <row r="25" spans="3:27">
-      <c r="C25" s="34"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="34"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="44"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="11"/>
@@ -1988,56 +2011,56 @@
       <c r="AA25" s="12"/>
     </row>
     <row r="26" spans="3:27" ht="15" customHeight="1">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="45">
         <v>938</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="47">
         <v>42.3</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="49">
         <v>82</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="43">
         <v>3.7</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="78">
         <v>3330</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="47">
         <v>161.80000000000001</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="49">
         <v>333</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="43">
         <v>16.2</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="78">
         <v>1616</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="47">
         <v>78.5</v>
       </c>
-      <c r="R26" s="39">
+      <c r="R26" s="49">
         <v>166</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="43">
         <v>8.1</v>
       </c>
-      <c r="U26" s="24" t="s">
+      <c r="U26" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="81"/>
       <c r="X26" s="10" t="s">
         <v>29</v>
       </c>
@@ -2046,43 +2069,43 @@
       <c r="AA26" s="17"/>
     </row>
     <row r="27" spans="3:27" ht="16" thickBot="1">
-      <c r="C27" s="34"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="34"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="27"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="44"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="83"/>
       <c r="X27" s="19"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="3:27">
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="53">
         <v>2658</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="55">
         <v>19.2</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="57">
         <v>127</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="51">
         <v>0.9</v>
       </c>
       <c r="I28" s="70" t="s">
@@ -2100,118 +2123,122 @@
       <c r="M28" s="70">
         <v>2.7</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="53">
         <v>3734</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="55">
         <v>27.6</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="57">
         <v>260</v>
       </c>
-      <c r="S28" s="41">
+      <c r="S28" s="51">
         <v>1.9</v>
       </c>
     </row>
     <row r="29" spans="3:27">
-      <c r="C29" s="42"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="42"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="52"/>
       <c r="I29" s="71"/>
       <c r="J29" s="73"/>
       <c r="K29" s="75"/>
       <c r="L29" s="77"/>
       <c r="M29" s="71"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="42"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="52"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <v>3000</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="89">
+        <v>13000000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="89">
+        <f>J33/J34</f>
+        <v>2.3076923076923076E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="90">
+        <f>J35*100000</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="U26:W27"/>
+    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="X8:X11"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="AA8:AA11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="P10:Q11"/>
     <mergeCell ref="R10:S11"/>
@@ -2236,56 +2263,83 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="U26:W27"/>
-    <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:W9"/>
-    <mergeCell ref="X8:X11"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="AA8:AA11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
